--- a/dbstructure.xlsx
+++ b/dbstructure.xlsx
@@ -325,16 +325,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1097881</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85397</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>681789</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>864</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>107736</xdr:rowOff>
+      <xdr:rowOff>114305</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -342,9 +342,9 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm flipH="1">
-          <a:off x="5170640" y="2952750"/>
-          <a:ext cx="680925" cy="774486"/>
+        <a:xfrm>
+          <a:off x="3389587" y="3514397"/>
+          <a:ext cx="684036" cy="219408"/>
           <a:chOff x="3403934" y="1258303"/>
           <a:chExt cx="686803" cy="1897434"/>
         </a:xfrm>
@@ -851,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:H20"/>
+  <dimension ref="D6:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +865,7 @@
     <col min="8" max="8" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
@@ -873,7 +873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
@@ -881,7 +881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
@@ -889,64 +889,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
